--- a/data/brand_Kantar.xlsx
+++ b/data/brand_Kantar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johannaschulz/Documents/GitHub/EconometricAnalysis-BrandCrisisModeration-DAX30/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE0D2BC-5853-CF46-A487-F807592F9975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF90C6EE-0227-4D49-9CDB-8664335EA234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-34000" yWindow="-640" windowWidth="27640" windowHeight="16760" xr2:uid="{EC95F2B1-67CE-DF42-9465-0AD532F8D67B}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="117">
   <si>
     <t>Adidas AG (former: -Solomon)</t>
   </si>
@@ -460,6 +460,9 @@
   </si>
   <si>
     <t>More Than One Strong Brand</t>
+  </si>
+  <si>
+    <t>VOW3.F</t>
   </si>
 </sst>
 </file>
@@ -909,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981D7B6B-1E1B-354E-BEBE-35F7FFA9C602}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1685,7 +1688,7 @@
         <v>3</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="H32">
         <v>1</v>

--- a/data/brand_Kantar.xlsx
+++ b/data/brand_Kantar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johannaschulz/Documents/GitHub/EconometricAnalysis-BrandCrisisModeration-DAX30/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF90C6EE-0227-4D49-9CDB-8664335EA234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAD8D6E-4D20-C344-9234-3337341404A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-34000" yWindow="-640" windowWidth="27640" windowHeight="16760" xr2:uid="{EC95F2B1-67CE-DF42-9465-0AD532F8D67B}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="117">
   <si>
     <t>Adidas AG (former: -Solomon)</t>
   </si>
@@ -394,29 +394,6 @@
     <t>Cars, Auto Manufacturers</t>
   </si>
   <si>
-    <r>
-      <t>VOW3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.F</t>
-    </r>
-  </si>
-  <si>
     <t>Audi</t>
   </si>
   <si>
@@ -463,6 +440,9 @@
   </si>
   <si>
     <t>VOW3.F</t>
+  </si>
+  <si>
+    <t>LIN.F</t>
   </si>
 </sst>
 </file>
@@ -912,36 +892,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981D7B6B-1E1B-354E-BEBE-35F7FFA9C602}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="42" x14ac:dyDescent="0.2">
@@ -1208,7 +1188,7 @@
         <v>41</v>
       </c>
       <c r="G12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1234,7 +1214,7 @@
         <v>41</v>
       </c>
       <c r="G13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1430,7 +1410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>72</v>
       </c>
@@ -1439,9 +1419,15 @@
       <c r="D22" s="2">
         <v>0</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="H22">
         <v>0</v>
       </c>
@@ -1636,7 +1622,7 @@
         <v>3</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -1647,7 +1633,7 @@
         <v>97</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C31" s="2">
         <v>7</v>
@@ -1662,7 +1648,7 @@
         <v>3</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -1673,7 +1659,7 @@
         <v>97</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C32" s="2">
         <v>16</v>
@@ -1688,7 +1674,7 @@
         <v>3</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -1696,7 +1682,7 @@
     </row>
     <row r="33" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1704,13 +1690,13 @@
         <v>0</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="H33">
         <v>0</v>

--- a/data/brand_Kantar.xlsx
+++ b/data/brand_Kantar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johannaschulz/Documents/GitHub/EconometricAnalysis-BrandCrisisModeration-DAX30/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAD8D6E-4D20-C344-9234-3337341404A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34B6BBC-1201-4E42-9098-66A753CC0F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-34000" yWindow="-640" windowWidth="27640" windowHeight="16760" xr2:uid="{EC95F2B1-67CE-DF42-9465-0AD532F8D67B}"/>
   </bookViews>
@@ -892,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981D7B6B-1E1B-354E-BEBE-35F7FFA9C602}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/brand_Kantar.xlsx
+++ b/data/brand_Kantar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johannaschulz/Documents/GitHub/EconometricAnalysis-BrandCrisisModeration-DAX30/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34B6BBC-1201-4E42-9098-66A753CC0F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DD9F76-5163-1E46-B8DD-B92134DE4792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34000" yWindow="-640" windowWidth="27640" windowHeight="16760" xr2:uid="{EC95F2B1-67CE-DF42-9465-0AD532F8D67B}"/>
+    <workbookView xWindow="31720" yWindow="1660" windowWidth="29400" windowHeight="17160" xr2:uid="{EC95F2B1-67CE-DF42-9465-0AD532F8D67B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="118">
   <si>
     <t>Adidas AG (former: -Solomon)</t>
   </si>
@@ -275,29 +275,6 @@
     <t>Household &amp; Personal Products</t>
   </si>
   <si>
-    <r>
-      <t>HEN3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.F</t>
-    </r>
-  </si>
-  <si>
     <t>Schwarzkopf</t>
   </si>
   <si>
@@ -443,6 +420,12 @@
   </si>
   <si>
     <t>LIN.F</t>
+  </si>
+  <si>
+    <t>Semiconductors</t>
+  </si>
+  <si>
+    <t>HEN3.F</t>
   </si>
 </sst>
 </file>
@@ -892,36 +875,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981D7B6B-1E1B-354E-BEBE-35F7FFA9C602}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>113</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="42" x14ac:dyDescent="0.2">
@@ -1188,7 +1171,7 @@
         <v>41</v>
       </c>
       <c r="G12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1214,7 +1197,7 @@
         <v>41</v>
       </c>
       <c r="G13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1358,7 +1341,7 @@
         <v>21</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1369,7 +1352,7 @@
         <v>64</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="2">
         <v>33</v>
@@ -1384,7 +1367,7 @@
         <v>21</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1392,19 +1375,21 @@
     </row>
     <row r="21" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2">
         <v>0</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="F21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1412,7 +1397,7 @@
     </row>
     <row r="22" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1426,7 +1411,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1434,10 +1419,10 @@
     </row>
     <row r="23" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="C23" s="2">
         <v>4</v>
@@ -1452,7 +1437,7 @@
         <v>3</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1460,7 +1445,7 @@
     </row>
     <row r="24" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1468,13 +1453,13 @@
         <v>0</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,23 +1467,23 @@
     </row>
     <row r="25" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2">
         <v>0</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1506,7 +1491,7 @@
     </row>
     <row r="26" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1514,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1528,10 +1513,10 @@
     </row>
     <row r="27" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="C27" s="2">
         <v>37</v>
@@ -1540,13 +1525,13 @@
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1554,7 +1539,7 @@
     </row>
     <row r="28" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2">
@@ -1564,13 +1549,13 @@
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1578,10 +1563,10 @@
     </row>
     <row r="29" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="C29" s="2">
         <v>6</v>
@@ -1590,13 +1575,13 @@
         <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1604,10 +1589,10 @@
     </row>
     <row r="30" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="C30" s="2">
         <v>15</v>
@@ -1616,13 +1601,13 @@
         <v>1</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -1630,10 +1615,10 @@
     </row>
     <row r="31" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C31" s="2">
         <v>7</v>
@@ -1642,13 +1627,13 @@
         <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -1656,10 +1641,10 @@
     </row>
     <row r="32" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C32" s="2">
         <v>16</v>
@@ -1668,13 +1653,13 @@
         <v>1</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -1682,7 +1667,7 @@
     </row>
     <row r="33" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1690,13 +1675,13 @@
         <v>0</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="H33">
         <v>0</v>

--- a/data/brand_Kantar.xlsx
+++ b/data/brand_Kantar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johannaschulz/Documents/GitHub/EconometricAnalysis-BrandCrisisModeration-DAX30/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DD9F76-5163-1E46-B8DD-B92134DE4792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FBA9E7-44D6-4D4F-8B02-2EF7839E54CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31720" yWindow="1660" windowWidth="29400" windowHeight="17160" xr2:uid="{EC95F2B1-67CE-DF42-9465-0AD532F8D67B}"/>
   </bookViews>
@@ -311,9 +311,6 @@
     <t>Münchener Rückversicherung-Gesellschaft</t>
   </si>
   <si>
-    <t>ERGO, Munich Re…</t>
-  </si>
-  <si>
     <t>Insurance - Reinsurance</t>
   </si>
   <si>
@@ -426,6 +423,9 @@
   </si>
   <si>
     <t>HEN3.F</t>
+  </si>
+  <si>
+    <t>SAP</t>
   </si>
 </sst>
 </file>
@@ -875,36 +875,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981D7B6B-1E1B-354E-BEBE-35F7FFA9C602}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="42" x14ac:dyDescent="0.2">
@@ -1171,7 +1171,7 @@
         <v>41</v>
       </c>
       <c r="G12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         <v>41</v>
       </c>
       <c r="G13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         <v>21</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1367,7 +1367,7 @@
         <v>21</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1383,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>69</v>
@@ -1411,7 +1411,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1469,21 +1469,19 @@
       <c r="A25" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2">
         <v>0</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1491,7 +1489,7 @@
     </row>
     <row r="26" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1499,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1513,10 +1511,10 @@
     </row>
     <row r="27" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="C27" s="2">
         <v>37</v>
@@ -1525,13 +1523,13 @@
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1539,23 +1537,25 @@
     </row>
     <row r="28" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>69</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1563,10 +1563,10 @@
     </row>
     <row r="29" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="C29" s="2">
         <v>6</v>
@@ -1575,13 +1575,13 @@
         <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1589,10 +1589,10 @@
     </row>
     <row r="30" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="C30" s="2">
         <v>15</v>
@@ -1601,13 +1601,13 @@
         <v>1</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -1615,10 +1615,10 @@
     </row>
     <row r="31" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31" s="2">
         <v>7</v>
@@ -1627,13 +1627,13 @@
         <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -1641,10 +1641,10 @@
     </row>
     <row r="32" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C32" s="2">
         <v>16</v>
@@ -1653,13 +1653,13 @@
         <v>1</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="33" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1675,13 +1675,13 @@
         <v>0</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="H33">
         <v>0</v>

--- a/data/brand_Kantar.xlsx
+++ b/data/brand_Kantar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johannaschulz/Documents/GitHub/EconometricAnalysis-BrandCrisisModeration-DAX30/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FBA9E7-44D6-4D4F-8B02-2EF7839E54CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4D87FC-9CC3-024C-8534-00D06089F356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31720" yWindow="1660" windowWidth="29400" windowHeight="17160" xr2:uid="{EC95F2B1-67CE-DF42-9465-0AD532F8D67B}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17160" xr2:uid="{EC95F2B1-67CE-DF42-9465-0AD532F8D67B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="121">
   <si>
     <t>Adidas AG (former: -Solomon)</t>
   </si>
@@ -386,9 +386,6 @@
     <t>VNA.F</t>
   </si>
   <si>
-    <t>DHL.DE</t>
-  </si>
-  <si>
     <t>Sector</t>
   </si>
   <si>
@@ -426,6 +423,18 @@
   </si>
   <si>
     <t>SAP</t>
+  </si>
+  <si>
+    <t>Total Revenue (2019)</t>
+  </si>
+  <si>
+    <t>EBITDA (2019)</t>
+  </si>
+  <si>
+    <t>EBIT (2019)</t>
+  </si>
+  <si>
+    <t>DHL.F</t>
   </si>
 </sst>
 </file>
@@ -526,7 +535,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -558,6 +567,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -873,41 +883,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981D7B6B-1E1B-354E-BEBE-35F7FFA9C602}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="42" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="I1" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="42" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -932,8 +954,17 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="I2" s="11">
+        <v>23640000</v>
+      </c>
+      <c r="J2" s="11">
+        <v>3932000</v>
+      </c>
+      <c r="K2" s="11">
+        <v>2718000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -958,8 +989,14 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="I3" s="11">
+        <v>112999000</v>
+      </c>
+      <c r="K3" s="11">
+        <v>12186000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -980,8 +1017,17 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="I4" s="11">
+        <v>59316000</v>
+      </c>
+      <c r="J4" s="11">
+        <v>8339000</v>
+      </c>
+      <c r="K4" s="11">
+        <v>4121000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="42" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1002,8 +1048,17 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="I5" s="11">
+        <v>43545000</v>
+      </c>
+      <c r="J5" s="11">
+        <v>10093000</v>
+      </c>
+      <c r="K5" s="11">
+        <v>4728000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="56" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1028,8 +1083,17 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="I6" s="11">
+        <v>7653000</v>
+      </c>
+      <c r="J6" s="11">
+        <v>1289000</v>
+      </c>
+      <c r="K6" s="11">
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="28" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -1054,8 +1118,17 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="I7" s="11">
+        <v>104210000</v>
+      </c>
+      <c r="J7" s="11">
+        <v>13634000</v>
+      </c>
+      <c r="K7" s="11">
+        <v>7617000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="28" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1080,8 +1153,17 @@
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="I8" s="11">
+        <v>44478400</v>
+      </c>
+      <c r="J8" s="11">
+        <v>4974200</v>
+      </c>
+      <c r="K8" s="11">
+        <v>-271300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="28" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>31</v>
       </c>
@@ -1102,8 +1184,17 @@
       <c r="H9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="I9" s="11">
+        <v>12412000</v>
+      </c>
+      <c r="J9" s="11">
+        <v>1625000</v>
+      </c>
+      <c r="K9" s="11">
+        <v>873000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="28" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
@@ -1128,8 +1219,14 @@
       <c r="H10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="I10" s="11">
+        <v>22948000</v>
+      </c>
+      <c r="K10" s="11">
+        <v>10266000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="42" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -1150,8 +1247,17 @@
       <c r="H11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="I11" s="11">
+        <v>3300300</v>
+      </c>
+      <c r="J11" s="11">
+        <v>1686900</v>
+      </c>
+      <c r="K11" s="11">
+        <v>1460700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="42" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
@@ -1171,13 +1277,22 @@
         <v>41</v>
       </c>
       <c r="G12" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="I12" s="11">
+        <v>63341000</v>
+      </c>
+      <c r="J12" s="11">
+        <v>7859000</v>
+      </c>
+      <c r="K12" s="11">
+        <v>4175000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="42" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
@@ -1197,13 +1312,22 @@
         <v>41</v>
       </c>
       <c r="G13" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="I13" s="11">
+        <v>63341000</v>
+      </c>
+      <c r="J13" s="11">
+        <v>7859000</v>
+      </c>
+      <c r="K13" s="11">
+        <v>4175000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="28" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
@@ -1228,8 +1352,17 @@
       <c r="H14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="I14" s="11">
+        <v>80185000</v>
+      </c>
+      <c r="J14" s="11">
+        <v>27864000</v>
+      </c>
+      <c r="K14" s="11">
+        <v>10201000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="28" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>51</v>
       </c>
@@ -1254,8 +1387,17 @@
       <c r="H15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="I15" s="11">
+        <v>41003000</v>
+      </c>
+      <c r="J15" s="11">
+        <v>4976000</v>
+      </c>
+      <c r="K15" s="11">
+        <v>2474000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="56" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>56</v>
       </c>
@@ -1276,8 +1418,17 @@
       <c r="H16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="I16" s="11">
+        <v>17477000</v>
+      </c>
+      <c r="J16" s="11">
+        <v>2332000</v>
+      </c>
+      <c r="K16" s="11">
+        <v>2332000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="28" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>59</v>
       </c>
@@ -1298,8 +1449,17 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="I17" s="11">
+        <v>35409000</v>
+      </c>
+      <c r="J17" s="11">
+        <v>7245000</v>
+      </c>
+      <c r="K17" s="11">
+        <v>4793000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="28" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>61</v>
       </c>
@@ -1320,8 +1480,17 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="I18" s="11">
+        <v>18851300</v>
+      </c>
+      <c r="J18" s="11">
+        <v>3462600</v>
+      </c>
+      <c r="K18" s="11">
+        <v>1994500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="42" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>64</v>
       </c>
@@ -1341,13 +1510,22 @@
         <v>21</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="I19" s="11">
+        <v>20114000</v>
+      </c>
+      <c r="J19" s="11">
+        <v>3665000</v>
+      </c>
+      <c r="K19" s="11">
+        <v>2908000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="42" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>64</v>
       </c>
@@ -1367,13 +1545,22 @@
         <v>21</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="I20" s="11">
+        <v>20114000</v>
+      </c>
+      <c r="J20" s="11">
+        <v>3665000</v>
+      </c>
+      <c r="K20" s="11">
+        <v>2908000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="42" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>68</v>
       </c>
@@ -1383,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>69</v>
@@ -1394,8 +1581,17 @@
       <c r="H21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="I21" s="11">
+        <v>8567000</v>
+      </c>
+      <c r="J21" s="11">
+        <v>1814000</v>
+      </c>
+      <c r="K21" s="11">
+        <v>554000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="28" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>71</v>
       </c>
@@ -1411,13 +1607,22 @@
         <v>12</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="I22" s="11">
+        <v>28228000</v>
+      </c>
+      <c r="J22" s="11">
+        <v>7640000</v>
+      </c>
+      <c r="K22" s="11">
+        <v>2965000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="56" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>72</v>
       </c>
@@ -1442,8 +1647,17 @@
       <c r="H23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="I23" s="11">
+        <v>172745000</v>
+      </c>
+      <c r="J23" s="11">
+        <v>12461000</v>
+      </c>
+      <c r="K23" s="11">
+        <v>4710000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="56" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>75</v>
       </c>
@@ -1464,8 +1678,17 @@
       <c r="H24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="I24" s="11">
+        <v>16152000</v>
+      </c>
+      <c r="J24" s="11">
+        <v>4155000</v>
+      </c>
+      <c r="K24" s="11">
+        <v>2211000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="56" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>78</v>
       </c>
@@ -1486,8 +1709,14 @@
       <c r="H25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="I25" s="11">
+        <v>57310000</v>
+      </c>
+      <c r="K25" s="11">
+        <v>3554000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="28" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>81</v>
       </c>
@@ -1508,8 +1737,17 @@
       <c r="H26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="I26" s="11">
+        <v>4628400</v>
+      </c>
+      <c r="J26" s="11">
+        <v>977400</v>
+      </c>
+      <c r="K26" s="11">
+        <v>717900</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="42" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>84</v>
       </c>
@@ -1534,13 +1772,22 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="I27" s="11">
+        <v>13125000</v>
+      </c>
+      <c r="J27" s="11">
+        <v>3141000</v>
+      </c>
+      <c r="K27" s="11">
+        <v>387000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="42" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -1560,8 +1807,17 @@
       <c r="H28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="I28" s="11">
+        <v>27553000</v>
+      </c>
+      <c r="J28" s="11">
+        <v>7079000</v>
+      </c>
+      <c r="K28" s="11">
+        <v>5207000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="56" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>91</v>
       </c>
@@ -1586,8 +1842,17 @@
       <c r="H29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="I29" s="11">
+        <v>57139000</v>
+      </c>
+      <c r="J29" s="11">
+        <v>9644000</v>
+      </c>
+      <c r="K29" s="11">
+        <v>6487000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="28" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>95</v>
       </c>
@@ -1607,13 +1872,22 @@
         <v>3</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="I30" s="11">
+        <v>252633000</v>
+      </c>
+      <c r="J30" s="11">
+        <v>45013000</v>
+      </c>
+      <c r="K30" s="11">
+        <v>20874000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="28" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>95</v>
       </c>
@@ -1633,13 +1907,22 @@
         <v>3</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="I31" s="11">
+        <v>252633000</v>
+      </c>
+      <c r="J31" s="11">
+        <v>45013000</v>
+      </c>
+      <c r="K31" s="11">
+        <v>20874000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="28" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>95</v>
       </c>
@@ -1659,13 +1942,22 @@
         <v>3</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="I32" s="11">
+        <v>252633000</v>
+      </c>
+      <c r="J32" s="11">
+        <v>45013000</v>
+      </c>
+      <c r="K32" s="11">
+        <v>20874000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="28" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>100</v>
       </c>
@@ -1686,8 +1978,17 @@
       <c r="H33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I33" s="11">
+        <v>2910700</v>
+      </c>
+      <c r="J33" s="11">
+        <v>5733700</v>
+      </c>
+      <c r="K33" s="11">
+        <v>3557900</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1696,20 +1997,20 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="9"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
     </row>
   </sheetData>
